--- a/Storage/App_Data/Books/Solace.xlsx
+++ b/Storage/App_Data/Books/Solace.xlsx
@@ -12,7 +12,44 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Book ID</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>asdasdasdasd</t>
+  </si>
+  <si>
+    <t>Image URL</t>
+  </si>
+  <si>
+    <t>https://birkhauser.com/product-not-found.png</t>
+  </si>
+  <si>
+    <t>Chapters</t>
+  </si>
+  <si>
+    <t>Chapter 0: asdasd</t>
+  </si>
+  <si>
+    <t>dasdasda</t>
+  </si>
+  <si>
+    <t>Chapter 1: asdasdas</t>
+  </si>
+  <si>
+    <t>dasdas</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -57,11 +94,66 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <headerFooter/>
 </worksheet>
 </file>